--- a/GUI.xlsx
+++ b/GUI.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aeb548c9c30d40b/文件中转站/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Fizz_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DA82427541F7ACA7EB8C7108D27086BE8DE15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E5E5E0-9A22-5349-9AB4-F598005AE768}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA41F82-6EBD-4105-9ECD-292C05A957D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2330" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="263" windowWidth="23236" windowHeight="13612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -193,15 +194,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,6 +201,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,349 +492,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -843,4 +844,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14517CCE-6D5C-4C71-B60B-B72ED6ED7904}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>